--- a/contratos/contratos-6-2009.xlsx
+++ b/contratos/contratos-6-2009.xlsx
@@ -640,7 +640,7 @@
     <t>IMEL INGENIERIA Y MATERIALES ELECTRICOS S.R.L.</t>
   </si>
   <si>
-    <t>IZAGUIRRE CARLOS MARIA, MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
+    <t>IZAGUIRRE CARLOS MARIA. MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
   </si>
   <si>
     <t>MAGRI HECTOR RAMON</t>
@@ -703,7 +703,7 @@
     <t>LANGONI JAVIER JOSE</t>
   </si>
   <si>
-    <t>PITTER ROLANDO L.J, CERGNEUX MARIO M. Y CERGNEUX DANIEL F.  S.H.</t>
+    <t>PITTER ROLANDO LJ. CERGNEUX MARIO M Y CERGNEUX DANIEL F  SH</t>
   </si>
   <si>
     <t>RODE PABLO DANIEL</t>
@@ -721,13 +721,13 @@
     <t>DIAZ JULIA Y DUARTE LAUTARO</t>
   </si>
   <si>
-    <t>FERNANDEZ MARIO H, GALLICET OSCAR M</t>
+    <t>FERNANDEZ MARIO H. GALLICET OSCAR M</t>
   </si>
   <si>
     <t>LEIVA GISELA NOEMI</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>OLIVERA JOSE PEDRO</t>
@@ -1159,478 +1159,478 @@
     <t>104</t>
   </si>
   <si>
-    <t>250,00</t>
-  </si>
-  <si>
-    <t>1.340,00</t>
-  </si>
-  <si>
-    <t>1.448,00</t>
-  </si>
-  <si>
-    <t>1.600,00</t>
-  </si>
-  <si>
-    <t>1.060,00</t>
-  </si>
-  <si>
-    <t>78.498,60</t>
-  </si>
-  <si>
-    <t>160,00</t>
-  </si>
-  <si>
-    <t>315,00</t>
-  </si>
-  <si>
-    <t>48,00</t>
-  </si>
-  <si>
-    <t>280,00</t>
-  </si>
-  <si>
-    <t>510,00</t>
-  </si>
-  <si>
-    <t>861,00</t>
-  </si>
-  <si>
-    <t>70.500,00</t>
-  </si>
-  <si>
-    <t>970,00</t>
-  </si>
-  <si>
-    <t>4.236,95</t>
-  </si>
-  <si>
-    <t>610,00</t>
-  </si>
-  <si>
-    <t>2.815,12</t>
-  </si>
-  <si>
-    <t>439,12</t>
-  </si>
-  <si>
-    <t>8.358,57</t>
-  </si>
-  <si>
-    <t>16.652,60</t>
-  </si>
-  <si>
-    <t>25.932,14</t>
-  </si>
-  <si>
-    <t>1.942,50</t>
-  </si>
-  <si>
-    <t>50,66</t>
-  </si>
-  <si>
-    <t>2.071,72</t>
-  </si>
-  <si>
-    <t>181,54</t>
-  </si>
-  <si>
-    <t>729,23</t>
-  </si>
-  <si>
-    <t>4.978,55</t>
-  </si>
-  <si>
-    <t>450,00</t>
-  </si>
-  <si>
-    <t>7.360,70</t>
-  </si>
-  <si>
-    <t>1.418,00</t>
-  </si>
-  <si>
-    <t>135,00</t>
-  </si>
-  <si>
-    <t>840,00</t>
-  </si>
-  <si>
-    <t>9,50</t>
-  </si>
-  <si>
-    <t>42,00</t>
-  </si>
-  <si>
-    <t>1.291,31</t>
-  </si>
-  <si>
-    <t>939,00</t>
-  </si>
-  <si>
-    <t>142,00</t>
-  </si>
-  <si>
-    <t>100,09</t>
-  </si>
-  <si>
-    <t>10.871,33</t>
-  </si>
-  <si>
-    <t>23.207,36</t>
-  </si>
-  <si>
-    <t>1.026,00</t>
-  </si>
-  <si>
-    <t>2.394,00</t>
-  </si>
-  <si>
-    <t>16.087,00</t>
-  </si>
-  <si>
-    <t>36,30</t>
-  </si>
-  <si>
-    <t>220,00</t>
-  </si>
-  <si>
-    <t>352,00</t>
-  </si>
-  <si>
-    <t>28.145,84</t>
-  </si>
-  <si>
-    <t>491,96</t>
-  </si>
-  <si>
-    <t>30,00</t>
-  </si>
-  <si>
-    <t>18,00</t>
-  </si>
-  <si>
-    <t>325,00</t>
-  </si>
-  <si>
-    <t>489,61</t>
-  </si>
-  <si>
-    <t>1.204,20</t>
-  </si>
-  <si>
-    <t>14.101,60</t>
-  </si>
-  <si>
-    <t>288,33</t>
-  </si>
-  <si>
-    <t>890,00</t>
-  </si>
-  <si>
-    <t>20,00</t>
-  </si>
-  <si>
-    <t>260,70</t>
-  </si>
-  <si>
-    <t>26,17</t>
-  </si>
-  <si>
-    <t>10.967,66</t>
-  </si>
-  <si>
-    <t>605,98</t>
-  </si>
-  <si>
-    <t>730,00</t>
-  </si>
-  <si>
-    <t>151,00</t>
-  </si>
-  <si>
-    <t>788,00</t>
-  </si>
-  <si>
-    <t>650,00</t>
-  </si>
-  <si>
-    <t>1.300,00</t>
-  </si>
-  <si>
-    <t>3.154,04</t>
-  </si>
-  <si>
-    <t>6.070,00</t>
-  </si>
-  <si>
-    <t>545,00</t>
-  </si>
-  <si>
-    <t>124,30</t>
-  </si>
-  <si>
-    <t>90,00</t>
-  </si>
-  <si>
-    <t>9.408,40</t>
-  </si>
-  <si>
-    <t>7.475,60</t>
-  </si>
-  <si>
-    <t>589,80</t>
-  </si>
-  <si>
-    <t>1.327,00</t>
-  </si>
-  <si>
-    <t>14,00</t>
-  </si>
-  <si>
-    <t>3.646,27</t>
-  </si>
-  <si>
-    <t>185,00</t>
-  </si>
-  <si>
-    <t>605,00</t>
-  </si>
-  <si>
-    <t>493,00</t>
-  </si>
-  <si>
-    <t>95,00</t>
-  </si>
-  <si>
-    <t>4.680,00</t>
-  </si>
-  <si>
-    <t>310,97</t>
-  </si>
-  <si>
-    <t>4.020,00</t>
-  </si>
-  <si>
-    <t>1.000,40</t>
-  </si>
-  <si>
-    <t>15.970,00</t>
-  </si>
-  <si>
-    <t>780,00</t>
-  </si>
-  <si>
-    <t>11.462,40</t>
-  </si>
-  <si>
-    <t>2.009,00</t>
-  </si>
-  <si>
-    <t>2.860,47</t>
-  </si>
-  <si>
-    <t>1.074,35</t>
-  </si>
-  <si>
-    <t>76,21</t>
-  </si>
-  <si>
-    <t>102,45</t>
-  </si>
-  <si>
-    <t>949,00</t>
-  </si>
-  <si>
-    <t>5.739,85</t>
-  </si>
-  <si>
-    <t>26.150,00</t>
-  </si>
-  <si>
-    <t>1.280,00</t>
-  </si>
-  <si>
-    <t>700,00</t>
-  </si>
-  <si>
-    <t>1.390,00</t>
-  </si>
-  <si>
-    <t>940,00</t>
-  </si>
-  <si>
-    <t>2.200,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>42.000,00</t>
-  </si>
-  <si>
-    <t>1.800,00</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>260,48</t>
-  </si>
-  <si>
-    <t>1.376,97</t>
-  </si>
-  <si>
-    <t>5.414,50</t>
-  </si>
-  <si>
-    <t>750,00</t>
-  </si>
-  <si>
-    <t>150,00</t>
-  </si>
-  <si>
-    <t>537,00</t>
-  </si>
-  <si>
-    <t>1.859,15</t>
-  </si>
-  <si>
-    <t>210,00</t>
-  </si>
-  <si>
-    <t>1.256,00</t>
-  </si>
-  <si>
-    <t>3.792,37</t>
-  </si>
-  <si>
-    <t>350,00</t>
-  </si>
-  <si>
-    <t>4.194,50</t>
-  </si>
-  <si>
-    <t>347,00</t>
-  </si>
-  <si>
-    <t>242,80</t>
-  </si>
-  <si>
-    <t>181,50</t>
-  </si>
-  <si>
-    <t>320,00</t>
-  </si>
-  <si>
-    <t>525,00</t>
-  </si>
-  <si>
-    <t>423,50</t>
-  </si>
-  <si>
-    <t>93,00</t>
-  </si>
-  <si>
-    <t>412,00</t>
-  </si>
-  <si>
-    <t>382,36</t>
-  </si>
-  <si>
-    <t>34.268,90</t>
-  </si>
-  <si>
-    <t>88,00</t>
-  </si>
-  <si>
-    <t>1.181,00</t>
-  </si>
-  <si>
-    <t>632,44</t>
-  </si>
-  <si>
-    <t>69,00</t>
-  </si>
-  <si>
-    <t>5.155,48</t>
-  </si>
-  <si>
-    <t>3.680,00</t>
-  </si>
-  <si>
-    <t>43,35</t>
-  </si>
-  <si>
-    <t>360,00</t>
-  </si>
-  <si>
-    <t>5.566,81</t>
-  </si>
-  <si>
-    <t>17.868,25</t>
-  </si>
-  <si>
-    <t>728,00</t>
-  </si>
-  <si>
-    <t>1.968,00</t>
-  </si>
-  <si>
-    <t>3.195,01</t>
-  </si>
-  <si>
-    <t>838,87</t>
-  </si>
-  <si>
-    <t>4.200,00</t>
-  </si>
-  <si>
-    <t>950,00</t>
-  </si>
-  <si>
-    <t>4.349,01</t>
-  </si>
-  <si>
-    <t>319.198,38</t>
-  </si>
-  <si>
-    <t>790,00</t>
-  </si>
-  <si>
-    <t>47,50</t>
-  </si>
-  <si>
-    <t>81.000,00</t>
-  </si>
-  <si>
-    <t>968,26</t>
-  </si>
-  <si>
-    <t>6.750,00</t>
-  </si>
-  <si>
-    <t>38.550,00</t>
-  </si>
-  <si>
-    <t>879,00</t>
-  </si>
-  <si>
-    <t>1.624,00</t>
-  </si>
-  <si>
-    <t>127.850,00</t>
-  </si>
-  <si>
-    <t>388,00</t>
-  </si>
-  <si>
-    <t>22,00</t>
-  </si>
-  <si>
-    <t>306,00</t>
-  </si>
-  <si>
-    <t>3.280,00</t>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>1340.00</t>
+  </si>
+  <si>
+    <t>1448.00</t>
+  </si>
+  <si>
+    <t>1600.00</t>
+  </si>
+  <si>
+    <t>1060.00</t>
+  </si>
+  <si>
+    <t>78498.60</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>315.00</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>280.00</t>
+  </si>
+  <si>
+    <t>510.00</t>
+  </si>
+  <si>
+    <t>861.00</t>
+  </si>
+  <si>
+    <t>70500.00</t>
+  </si>
+  <si>
+    <t>970.00</t>
+  </si>
+  <si>
+    <t>4236.95</t>
+  </si>
+  <si>
+    <t>610.00</t>
+  </si>
+  <si>
+    <t>2815.12</t>
+  </si>
+  <si>
+    <t>439.12</t>
+  </si>
+  <si>
+    <t>8358.57</t>
+  </si>
+  <si>
+    <t>16652.60</t>
+  </si>
+  <si>
+    <t>25932.14</t>
+  </si>
+  <si>
+    <t>1942.50</t>
+  </si>
+  <si>
+    <t>50.66</t>
+  </si>
+  <si>
+    <t>2071.72</t>
+  </si>
+  <si>
+    <t>181.54</t>
+  </si>
+  <si>
+    <t>729.23</t>
+  </si>
+  <si>
+    <t>4978.55</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>7360.70</t>
+  </si>
+  <si>
+    <t>1418.00</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>840.00</t>
+  </si>
+  <si>
+    <t>9.50</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>1291.31</t>
+  </si>
+  <si>
+    <t>939.00</t>
+  </si>
+  <si>
+    <t>142.00</t>
+  </si>
+  <si>
+    <t>100.09</t>
+  </si>
+  <si>
+    <t>10871.33</t>
+  </si>
+  <si>
+    <t>23207.36</t>
+  </si>
+  <si>
+    <t>1026.00</t>
+  </si>
+  <si>
+    <t>2394.00</t>
+  </si>
+  <si>
+    <t>16087.00</t>
+  </si>
+  <si>
+    <t>36.30</t>
+  </si>
+  <si>
+    <t>220.00</t>
+  </si>
+  <si>
+    <t>352.00</t>
+  </si>
+  <si>
+    <t>28145.84</t>
+  </si>
+  <si>
+    <t>491.96</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>325.00</t>
+  </si>
+  <si>
+    <t>489.61</t>
+  </si>
+  <si>
+    <t>1204.20</t>
+  </si>
+  <si>
+    <t>14101.60</t>
+  </si>
+  <si>
+    <t>288.33</t>
+  </si>
+  <si>
+    <t>890.00</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>260.70</t>
+  </si>
+  <si>
+    <t>26.17</t>
+  </si>
+  <si>
+    <t>10967.66</t>
+  </si>
+  <si>
+    <t>605.98</t>
+  </si>
+  <si>
+    <t>730.00</t>
+  </si>
+  <si>
+    <t>151.00</t>
+  </si>
+  <si>
+    <t>788.00</t>
+  </si>
+  <si>
+    <t>650.00</t>
+  </si>
+  <si>
+    <t>1300.00</t>
+  </si>
+  <si>
+    <t>3154.04</t>
+  </si>
+  <si>
+    <t>6070.00</t>
+  </si>
+  <si>
+    <t>545.00</t>
+  </si>
+  <si>
+    <t>124.30</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>9408.40</t>
+  </si>
+  <si>
+    <t>7475.60</t>
+  </si>
+  <si>
+    <t>589.80</t>
+  </si>
+  <si>
+    <t>1327.00</t>
+  </si>
+  <si>
+    <t>14.00</t>
+  </si>
+  <si>
+    <t>3646.27</t>
+  </si>
+  <si>
+    <t>185.00</t>
+  </si>
+  <si>
+    <t>605.00</t>
+  </si>
+  <si>
+    <t>493.00</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>4680.00</t>
+  </si>
+  <si>
+    <t>310.97</t>
+  </si>
+  <si>
+    <t>4020.00</t>
+  </si>
+  <si>
+    <t>1000.40</t>
+  </si>
+  <si>
+    <t>15970.00</t>
+  </si>
+  <si>
+    <t>780.00</t>
+  </si>
+  <si>
+    <t>11462.40</t>
+  </si>
+  <si>
+    <t>2009.00</t>
+  </si>
+  <si>
+    <t>2860.47</t>
+  </si>
+  <si>
+    <t>1074.35</t>
+  </si>
+  <si>
+    <t>76.21</t>
+  </si>
+  <si>
+    <t>102.45</t>
+  </si>
+  <si>
+    <t>949.00</t>
+  </si>
+  <si>
+    <t>5739.85</t>
+  </si>
+  <si>
+    <t>26150.00</t>
+  </si>
+  <si>
+    <t>1280.00</t>
+  </si>
+  <si>
+    <t>700.00</t>
+  </si>
+  <si>
+    <t>1390.00</t>
+  </si>
+  <si>
+    <t>940.00</t>
+  </si>
+  <si>
+    <t>2200.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>42000.00</t>
+  </si>
+  <si>
+    <t>1800.00</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>260.48</t>
+  </si>
+  <si>
+    <t>1376.97</t>
+  </si>
+  <si>
+    <t>5414.50</t>
+  </si>
+  <si>
+    <t>750.00</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>537.00</t>
+  </si>
+  <si>
+    <t>1859.15</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>1256.00</t>
+  </si>
+  <si>
+    <t>3792.37</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>4194.50</t>
+  </si>
+  <si>
+    <t>347.00</t>
+  </si>
+  <si>
+    <t>242.80</t>
+  </si>
+  <si>
+    <t>181.50</t>
+  </si>
+  <si>
+    <t>320.00</t>
+  </si>
+  <si>
+    <t>525.00</t>
+  </si>
+  <si>
+    <t>423.50</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>412.00</t>
+  </si>
+  <si>
+    <t>382.36</t>
+  </si>
+  <si>
+    <t>34268.90</t>
+  </si>
+  <si>
+    <t>88.00</t>
+  </si>
+  <si>
+    <t>1181.00</t>
+  </si>
+  <si>
+    <t>632.44</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>5155.48</t>
+  </si>
+  <si>
+    <t>3680.00</t>
+  </si>
+  <si>
+    <t>43.35</t>
+  </si>
+  <si>
+    <t>360.00</t>
+  </si>
+  <si>
+    <t>5566.81</t>
+  </si>
+  <si>
+    <t>17868.25</t>
+  </si>
+  <si>
+    <t>728.00</t>
+  </si>
+  <si>
+    <t>1968.00</t>
+  </si>
+  <si>
+    <t>3195.01</t>
+  </si>
+  <si>
+    <t>838.87</t>
+  </si>
+  <si>
+    <t>4200.00</t>
+  </si>
+  <si>
+    <t>950.00</t>
+  </si>
+  <si>
+    <t>4349.01</t>
+  </si>
+  <si>
+    <t>319198.38</t>
+  </si>
+  <si>
+    <t>790.00</t>
+  </si>
+  <si>
+    <t>47.50</t>
+  </si>
+  <si>
+    <t>81000.00</t>
+  </si>
+  <si>
+    <t>968.26</t>
+  </si>
+  <si>
+    <t>6750.00</t>
+  </si>
+  <si>
+    <t>38550.00</t>
+  </si>
+  <si>
+    <t>879.00</t>
+  </si>
+  <si>
+    <t>1624.00</t>
+  </si>
+  <si>
+    <t>127850.00</t>
+  </si>
+  <si>
+    <t>388.00</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>306.00</t>
+  </si>
+  <si>
+    <t>3280.00</t>
   </si>
 </sst>
 </file>
